--- a/data/scenario_parameters_predictive.xlsx
+++ b/data/scenario_parameters_predictive.xlsx
@@ -1,27 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ngreen1\Google Drive\ACE -- LTBI screening in hospital\R code\LTBIhospitalScreenACE\data\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9016645-A236-4190-85DA-1721847378B9}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="cost" sheetId="2" r:id="rId1"/>
     <sheet name="p" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="11">
   <si>
     <t>scenario</t>
   </si>
@@ -52,11 +46,14 @@
   <si>
     <t>1-NPV</t>
   </si>
+  <si>
+    <t>Not Agree to Screen</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -394,23 +391,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -500,16 +497,18 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C6">
-        <v>144</v>
+        <f>144-12-5.96</f>
+        <v>126.04</v>
       </c>
       <c r="D6">
-        <v>144</v>
+        <f>144-12-5.96</f>
+        <v>126.04</v>
       </c>
       <c r="E6" t="s">
         <v>5</v>
@@ -520,7 +519,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>144</v>
@@ -537,7 +536,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>144</v>
@@ -554,7 +553,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>144</v>
@@ -568,16 +567,16 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D10">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E10" t="s">
         <v>5</v>
@@ -585,16 +584,18 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>147</v>
+        <f>144-12-5.96</f>
+        <v>126.04</v>
       </c>
       <c r="D11">
-        <v>147</v>
+        <f>144-12-5.96</f>
+        <v>126.04</v>
       </c>
       <c r="E11" t="s">
         <v>5</v>
@@ -605,7 +606,7 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12">
         <v>147</v>
@@ -622,7 +623,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13">
         <v>147</v>
@@ -636,10 +637,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C14">
         <v>147</v>
@@ -653,10 +654,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15">
         <v>147</v>
@@ -670,16 +671,18 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C16">
-        <v>147</v>
+        <f>147-12-5.96</f>
+        <v>129.04</v>
       </c>
       <c r="D16">
-        <v>147</v>
+        <f>147-12-5.96</f>
+        <v>129.04</v>
       </c>
       <c r="E16" t="s">
         <v>5</v>
@@ -690,7 +693,7 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C17">
         <v>147</v>
@@ -704,16 +707,16 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C18">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D18">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E18" t="s">
         <v>5</v>
@@ -721,16 +724,16 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D19">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E19" t="s">
         <v>5</v>
@@ -738,16 +741,16 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C20">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D20">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E20" t="s">
         <v>5</v>
@@ -755,16 +758,18 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C21">
-        <v>146</v>
+        <f>147-12-5.96</f>
+        <v>129.04</v>
       </c>
       <c r="D21">
-        <v>146</v>
+        <f>147-12-5.96</f>
+        <v>129.04</v>
       </c>
       <c r="E21" t="s">
         <v>5</v>
@@ -772,7 +777,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
@@ -789,7 +794,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
@@ -806,7 +811,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
@@ -823,7 +828,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B25" t="s">
         <v>9</v>
@@ -835,6 +840,112 @@
         <v>146</v>
       </c>
       <c r="E25" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26">
+        <f>146-12-5.96</f>
+        <v>128.04</v>
+      </c>
+      <c r="D26">
+        <f>146-12-5.96</f>
+        <v>128.04</v>
+      </c>
+      <c r="E26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27">
+        <v>146</v>
+      </c>
+      <c r="D27">
+        <v>146</v>
+      </c>
+      <c r="E27" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <v>146</v>
+      </c>
+      <c r="D28">
+        <v>146</v>
+      </c>
+      <c r="E28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29">
+        <v>146</v>
+      </c>
+      <c r="D29">
+        <v>146</v>
+      </c>
+      <c r="E29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>6</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30">
+        <v>146</v>
+      </c>
+      <c r="D30">
+        <v>146</v>
+      </c>
+      <c r="E30" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <f>146-12-5.96</f>
+        <v>128.04</v>
+      </c>
+      <c r="D31">
+        <f>146-12-5.96</f>
+        <v>128.04</v>
+      </c>
+      <c r="E31" t="s">
         <v>5</v>
       </c>
     </row>
@@ -844,7 +955,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
